--- a/statics/media/cmdb.xlsx
+++ b/statics/media/cmdb.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>IP地址</t>
   </si>
@@ -53,9 +53,21 @@
     <t>厂商</t>
   </si>
   <si>
+    <t>厂商负责人</t>
+  </si>
+  <si>
+    <t>厂商电话</t>
+  </si>
+  <si>
+    <t>厂商邮箱</t>
+  </si>
+  <si>
     <t>管理员</t>
   </si>
   <si>
+    <t>角色</t>
+  </si>
+  <si>
     <t>电话</t>
   </si>
   <si>
@@ -102,6 +114,15 @@
   </si>
   <si>
     <t>100860@139.com</t>
+  </si>
+  <si>
+    <t>超级管理员</t>
+  </si>
+  <si>
+    <t>1343208940</t>
+  </si>
+  <si>
+    <t>1343208940@139.com</t>
   </si>
   <si>
     <t>127.0.0.2</t>
@@ -488,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,9 +532,13 @@
     <col customWidth="1" max="13" min="13" width="18"/>
     <col customWidth="1" max="14" min="14" width="18"/>
     <col customWidth="1" max="15" min="15" width="18"/>
+    <col customWidth="1" max="16" min="16" width="18"/>
+    <col customWidth="1" max="17" min="17" width="18"/>
+    <col customWidth="1" max="18" min="18" width="18"/>
+    <col customWidth="1" max="19" min="19" width="18"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30" r="1" spans="1:15">
+    <row customHeight="1" ht="30" r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,91 +584,127 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:19">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="G3" s="2" t="s"/>
       <c r="H3" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I3" s="2" t="s"/>
       <c r="J3" s="2" t="s"/>
       <c r="K3" s="2" t="s"/>
       <c r="L3" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/statics/media/cmdb.xlsx
+++ b/statics/media/cmdb.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>IP地址</t>
   </si>
@@ -116,22 +116,10 @@
     <t>100860@139.com</t>
   </si>
   <si>
-    <t>超级管理员</t>
-  </si>
-  <si>
-    <t>1343208940</t>
-  </si>
-  <si>
-    <t>1343208940@139.com</t>
-  </si>
-  <si>
-    <t>127.0.0.2</t>
-  </si>
-  <si>
-    <t>虚拟机</t>
-  </si>
-  <si>
-    <t>服务器-测试</t>
+    <t>test</t>
+  </si>
+  <si>
+    <t>10086@139.com</t>
   </si>
 </sst>
 </file>
@@ -509,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -644,67 +632,16 @@
         <v>32</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="R2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2" t="s"/>
-      <c r="H3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="2" t="s"/>
-      <c r="J3" s="2" t="s"/>
-      <c r="K3" s="2" t="s"/>
-      <c r="L3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/statics/media/cmdb.xlsx
+++ b/statics/media/cmdb.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
   <si>
     <t>IP地址</t>
   </si>
@@ -116,10 +116,58 @@
     <t>100860@139.com</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>10086@139.com</t>
+    <t>超级管理员</t>
+  </si>
+  <si>
+    <t>1343208940</t>
+  </si>
+  <si>
+    <t>1343208940@139.com</t>
+  </si>
+  <si>
+    <t>127.0.0.2</t>
+  </si>
+  <si>
+    <t>虚拟机</t>
+  </si>
+  <si>
+    <t>服务器-测试</t>
+  </si>
+  <si>
+    <t>192.168.1.88</t>
+  </si>
+  <si>
+    <t>运维</t>
+  </si>
+  <si>
+    <t>ELK 日志服务器</t>
+  </si>
+  <si>
+    <t>10245</t>
+  </si>
+  <si>
+    <t>2018-10-24</t>
+  </si>
+  <si>
+    <t>2019-10-24</t>
+  </si>
+  <si>
+    <t>小贰</t>
+  </si>
+  <si>
+    <t>192.168.1.89</t>
+  </si>
+  <si>
+    <t>备份服务器</t>
+  </si>
+  <si>
+    <t>1025</t>
+  </si>
+  <si>
+    <t>2018-10-25</t>
+  </si>
+  <si>
+    <t>2019-10-25</t>
   </si>
 </sst>
 </file>
@@ -497,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,16 +680,185 @@
         <v>32</v>
       </c>
       <c r="P2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="R2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s"/>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s"/>
+      <c r="J3" s="2" t="s"/>
+      <c r="K3" s="2" t="s"/>
+      <c r="L3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="O3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>34</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/statics/media/cmdb.xlsx
+++ b/statics/media/cmdb.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="188">
   <si>
     <t>IP地址</t>
   </si>
@@ -74,76 +74,427 @@
     <t>邮箱</t>
   </si>
   <si>
-    <t>127.0.0.1</t>
+    <t>39.108.15.95</t>
+  </si>
+  <si>
+    <t>华南1区</t>
+  </si>
+  <si>
+    <t>云主机</t>
+  </si>
+  <si>
+    <t>仓管系统</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>Oneday0313</t>
+  </si>
+  <si>
+    <t>25840</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>2018-10-01</t>
+  </si>
+  <si>
+    <t>2019-10-01</t>
+  </si>
+  <si>
+    <t>阿里云</t>
+  </si>
+  <si>
+    <t>张三</t>
+  </si>
+  <si>
+    <t>13432089040</t>
+  </si>
+  <si>
+    <t>13432089040@139.com</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>超级管理员</t>
+  </si>
+  <si>
+    <t>1343208940</t>
+  </si>
+  <si>
+    <t>1343208940@139.com</t>
+  </si>
+  <si>
+    <t>47.106.100.46</t>
+  </si>
+  <si>
+    <t>木头云</t>
+  </si>
+  <si>
+    <t>木头云站点</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>2018-10-02</t>
+  </si>
+  <si>
+    <t>2019-10-02</t>
+  </si>
+  <si>
+    <t>120.78.168.239</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>2018-10-03</t>
+  </si>
+  <si>
+    <t>2019-10-03</t>
+  </si>
+  <si>
+    <t>120.79.159.110</t>
+  </si>
+  <si>
+    <t>木头云交易</t>
+  </si>
+  <si>
+    <t>木头云交易站点</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>2018-10-04</t>
+  </si>
+  <si>
+    <t>2019-10-04</t>
+  </si>
+  <si>
+    <t>120.79.168.64</t>
+  </si>
+  <si>
+    <t>木头云后台管理</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>2018-10-05</t>
+  </si>
+  <si>
+    <t>2019-10-05</t>
+  </si>
+  <si>
+    <t>39.108.136.198</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>2018-10-06</t>
+  </si>
+  <si>
+    <t>2019-10-06</t>
+  </si>
+  <si>
+    <t>120.78.228.208</t>
   </si>
   <si>
     <t>木头人</t>
   </si>
   <si>
+    <t>木头人金融_管理站点</t>
+  </si>
+  <si>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>2018-10-07</t>
+  </si>
+  <si>
+    <t>2019-10-07</t>
+  </si>
+  <si>
+    <t>120.76.96.210</t>
+  </si>
+  <si>
+    <t>木头人金融项目站点</t>
+  </si>
+  <si>
+    <t>1008</t>
+  </si>
+  <si>
+    <t>2018-10-08</t>
+  </si>
+  <si>
+    <t>2019-10-08</t>
+  </si>
+  <si>
+    <t>120.78.231.153</t>
+  </si>
+  <si>
+    <t>木头人金融RPC服务器</t>
+  </si>
+  <si>
+    <t>1009</t>
+  </si>
+  <si>
+    <t>2018-10-09</t>
+  </si>
+  <si>
+    <t>2019-10-09</t>
+  </si>
+  <si>
+    <t>120.78.252.203</t>
+  </si>
+  <si>
+    <t>木头人金融_RBMQ消息队列服务器</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>2018-10-10</t>
+  </si>
+  <si>
+    <t>2019-10-10</t>
+  </si>
+  <si>
+    <t>118.31.6.101</t>
+  </si>
+  <si>
+    <t>华东1区</t>
+  </si>
+  <si>
+    <t>木头人金融灾备服务器</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>2018-10-11</t>
+  </si>
+  <si>
+    <t>2019-10-11</t>
+  </si>
+  <si>
+    <t>120.79.240.239</t>
+  </si>
+  <si>
+    <t>木头人金融项目站点（S2）新服务器</t>
+  </si>
+  <si>
+    <t>1012</t>
+  </si>
+  <si>
+    <t>2018-10-12</t>
+  </si>
+  <si>
+    <t>2019-10-12</t>
+  </si>
+  <si>
+    <t>192.168.1.190</t>
+  </si>
+  <si>
+    <t>虚拟机</t>
+  </si>
+  <si>
+    <t>测试组</t>
+  </si>
+  <si>
+    <t>gogs 服务器</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>1013</t>
+  </si>
+  <si>
+    <t>2018-10-13</t>
+  </si>
+  <si>
+    <t>2019-10-13</t>
+  </si>
+  <si>
+    <t>李祖祥</t>
+  </si>
+  <si>
+    <t>192.168.1.192</t>
+  </si>
+  <si>
+    <t>RMQ消息队列测试</t>
+  </si>
+  <si>
+    <t>1014</t>
+  </si>
+  <si>
+    <t>2018-10-14</t>
+  </si>
+  <si>
+    <t>2019-10-14</t>
+  </si>
+  <si>
+    <t>192.168.1.191</t>
+  </si>
+  <si>
+    <t>木头人管理测试站点</t>
+  </si>
+  <si>
+    <t>1015</t>
+  </si>
+  <si>
+    <t>2018-10-15</t>
+  </si>
+  <si>
+    <t>2019-10-15</t>
+  </si>
+  <si>
+    <t>192.168.1.194</t>
+  </si>
+  <si>
+    <t>木头云测试站点</t>
+  </si>
+  <si>
+    <t>1016</t>
+  </si>
+  <si>
+    <t>2018-10-16</t>
+  </si>
+  <si>
+    <t>2019-10-16</t>
+  </si>
+  <si>
+    <t>192.168.1.195</t>
+  </si>
+  <si>
+    <t>木头人金融测试站点</t>
+  </si>
+  <si>
+    <t>1017</t>
+  </si>
+  <si>
+    <t>2018-10-17</t>
+  </si>
+  <si>
+    <t>2019-10-17</t>
+  </si>
+  <si>
+    <t>192.168.1.196</t>
+  </si>
+  <si>
+    <t>木头云旧平台测试站点</t>
+  </si>
+  <si>
+    <t>1018</t>
+  </si>
+  <si>
+    <t>2018-10-18</t>
+  </si>
+  <si>
+    <t>2019-10-18</t>
+  </si>
+  <si>
+    <t>192.168.1.91</t>
+  </si>
+  <si>
+    <t>区块链测试服务器</t>
+  </si>
+  <si>
+    <t>1019</t>
+  </si>
+  <si>
+    <t>2018-10-19</t>
+  </si>
+  <si>
+    <t>2019-10-19</t>
+  </si>
+  <si>
+    <t>192.168.1.207</t>
+  </si>
+  <si>
+    <t>apidoc</t>
+  </si>
+  <si>
+    <t>1020</t>
+  </si>
+  <si>
+    <t>2018-10-20</t>
+  </si>
+  <si>
+    <t>2019-10-20</t>
+  </si>
+  <si>
+    <t>192.168.1.218</t>
+  </si>
+  <si>
+    <t>运维</t>
+  </si>
+  <si>
+    <t>运维管理服务器</t>
+  </si>
+  <si>
+    <t>1021</t>
+  </si>
+  <si>
+    <t>2018-10-21</t>
+  </si>
+  <si>
+    <t>2019-10-21</t>
+  </si>
+  <si>
+    <t>39.108.231.212</t>
+  </si>
+  <si>
+    <t>木头人运维管理服务器</t>
+  </si>
+  <si>
+    <t>1022</t>
+  </si>
+  <si>
+    <t>2018-10-22</t>
+  </si>
+  <si>
+    <t>2019-10-22</t>
+  </si>
+  <si>
+    <t>192.168.1.198</t>
+  </si>
+  <si>
     <t>物理机</t>
   </si>
   <si>
-    <t>服务器-运维</t>
-  </si>
-  <si>
-    <t>root</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>测试</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>4656</t>
-  </si>
-  <si>
-    <t>维盟</t>
-  </si>
-  <si>
-    <t>lzx</t>
-  </si>
-  <si>
-    <t>10086</t>
-  </si>
-  <si>
-    <t>100860@139.com</t>
-  </si>
-  <si>
-    <t>超级管理员</t>
-  </si>
-  <si>
-    <t>1343208940</t>
-  </si>
-  <si>
-    <t>1343208940@139.com</t>
-  </si>
-  <si>
-    <t>127.0.0.2</t>
-  </si>
-  <si>
-    <t>虚拟机</t>
-  </si>
-  <si>
-    <t>服务器-测试</t>
+    <t>ESXI 6.5</t>
+  </si>
+  <si>
+    <t>1023</t>
+  </si>
+  <si>
+    <t>2018-10-23</t>
+  </si>
+  <si>
+    <t>2019-10-23</t>
+  </si>
+  <si>
+    <t>戴尔</t>
+  </si>
+  <si>
+    <t>李四</t>
   </si>
   <si>
     <t>192.168.1.88</t>
   </si>
   <si>
-    <t>运维</t>
-  </si>
-  <si>
     <t>ELK 日志服务器</t>
   </si>
   <si>
-    <t>10245</t>
+    <t>1024</t>
   </si>
   <si>
     <t>2018-10-24</t>
@@ -152,9 +503,6 @@
     <t>2019-10-24</t>
   </si>
   <si>
-    <t>小贰</t>
-  </si>
-  <si>
     <t>192.168.1.89</t>
   </si>
   <si>
@@ -168,6 +516,69 @@
   </si>
   <si>
     <t>2019-10-25</t>
+  </si>
+  <si>
+    <t>192.168.1.216</t>
+  </si>
+  <si>
+    <t>docker k8s-node1</t>
+  </si>
+  <si>
+    <t>1026</t>
+  </si>
+  <si>
+    <t>2018-10-26</t>
+  </si>
+  <si>
+    <t>2019-10-26</t>
+  </si>
+  <si>
+    <t>192.168.1.126</t>
+  </si>
+  <si>
+    <t>docker k8s-master</t>
+  </si>
+  <si>
+    <t>1027</t>
+  </si>
+  <si>
+    <t>2018-10-27</t>
+  </si>
+  <si>
+    <t>2019-10-27</t>
+  </si>
+  <si>
+    <t>192.168.1.197</t>
+  </si>
+  <si>
+    <t>administrator</t>
+  </si>
+  <si>
+    <t>hyper-V 宿主机</t>
+  </si>
+  <si>
+    <t>3389</t>
+  </si>
+  <si>
+    <t>1028</t>
+  </si>
+  <si>
+    <t>2018-10-28</t>
+  </si>
+  <si>
+    <t>2019-10-28</t>
+  </si>
+  <si>
+    <t>192.168.1.199</t>
+  </si>
+  <si>
+    <t>1029</t>
+  </si>
+  <si>
+    <t>2018-10-29</t>
+  </si>
+  <si>
+    <t>2019-10-29</t>
   </si>
 </sst>
 </file>
@@ -545,7 +956,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,13 +1064,13 @@
         <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>27</v>
@@ -680,27 +1091,27 @@
         <v>32</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>38</v>
@@ -709,15 +1120,23 @@
         <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="H3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="2" t="s"/>
-      <c r="J3" s="2" t="s"/>
-      <c r="K3" s="2" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="L3" s="2" t="s">
         <v>29</v>
       </c>
@@ -731,30 +1150,30 @@
         <v>32</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>23</v>
@@ -763,25 +1182,25 @@
         <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>31</v>
@@ -790,30 +1209,30 @@
         <v>32</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>23</v>
@@ -822,43 +1241,1518 @@
         <v>24</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" s="2" t="s">
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>35</v>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/statics/media/cmdb.xlsx
+++ b/statics/media/cmdb.xlsx
@@ -116,6 +116,9 @@
     <t>100860@139.com</t>
   </si>
   <si>
+    <t>小贰</t>
+  </si>
+  <si>
     <t>超级管理员</t>
   </si>
   <si>
@@ -150,9 +153,6 @@
   </si>
   <si>
     <t>2019-10-24</t>
-  </si>
-  <si>
-    <t>小贰</t>
   </si>
   <si>
     <t>192.168.1.89</t>
@@ -680,30 +680,30 @@
         <v>32</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
@@ -731,30 +731,30 @@
         <v>32</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>23</v>
@@ -763,25 +763,25 @@
         <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>31</v>
@@ -790,16 +790,16 @@
         <v>32</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -810,10 +810,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>23</v>
@@ -840,7 +840,7 @@
         <v>20</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>31</v>
@@ -849,16 +849,16 @@
         <v>32</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/statics/media/cmdb.xlsx
+++ b/statics/media/cmdb.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="188">
   <si>
     <t>IP地址</t>
   </si>
@@ -74,79 +74,427 @@
     <t>邮箱</t>
   </si>
   <si>
-    <t>127.0.0.1</t>
+    <t>39.108.15.95</t>
+  </si>
+  <si>
+    <t>华南1区</t>
+  </si>
+  <si>
+    <t>云主机</t>
+  </si>
+  <si>
+    <t>仓管系统</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>Oneday0313</t>
+  </si>
+  <si>
+    <t>25840</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>2018-10-01</t>
+  </si>
+  <si>
+    <t>2019-10-01</t>
+  </si>
+  <si>
+    <t>阿里云</t>
+  </si>
+  <si>
+    <t>张三</t>
+  </si>
+  <si>
+    <t>13432089040</t>
+  </si>
+  <si>
+    <t>13432089040@139.com</t>
+  </si>
+  <si>
+    <t>小贰</t>
+  </si>
+  <si>
+    <t>超级管理员</t>
+  </si>
+  <si>
+    <t>1343208940</t>
+  </si>
+  <si>
+    <t>1343208940@139.com</t>
+  </si>
+  <si>
+    <t>47.106.100.46</t>
+  </si>
+  <si>
+    <t>木头云</t>
+  </si>
+  <si>
+    <t>木头云站点</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>2018-10-02</t>
+  </si>
+  <si>
+    <t>2019-10-02</t>
+  </si>
+  <si>
+    <t>120.78.168.239</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>2018-10-03</t>
+  </si>
+  <si>
+    <t>2019-10-03</t>
+  </si>
+  <si>
+    <t>120.79.159.110</t>
+  </si>
+  <si>
+    <t>木头云交易</t>
+  </si>
+  <si>
+    <t>木头云交易站点</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>2018-10-04</t>
+  </si>
+  <si>
+    <t>2019-10-04</t>
+  </si>
+  <si>
+    <t>120.79.168.64</t>
+  </si>
+  <si>
+    <t>木头云后台管理</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>2018-10-05</t>
+  </si>
+  <si>
+    <t>2019-10-05</t>
+  </si>
+  <si>
+    <t>39.108.136.198</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>2018-10-06</t>
+  </si>
+  <si>
+    <t>2019-10-06</t>
+  </si>
+  <si>
+    <t>120.78.228.208</t>
   </si>
   <si>
     <t>木头人</t>
   </si>
   <si>
+    <t>木头人金融_管理站点</t>
+  </si>
+  <si>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>2018-10-07</t>
+  </si>
+  <si>
+    <t>2019-10-07</t>
+  </si>
+  <si>
+    <t>120.76.96.210</t>
+  </si>
+  <si>
+    <t>木头人金融项目站点</t>
+  </si>
+  <si>
+    <t>1008</t>
+  </si>
+  <si>
+    <t>2018-10-08</t>
+  </si>
+  <si>
+    <t>2019-10-08</t>
+  </si>
+  <si>
+    <t>120.78.231.153</t>
+  </si>
+  <si>
+    <t>木头人金融RPC服务器</t>
+  </si>
+  <si>
+    <t>1009</t>
+  </si>
+  <si>
+    <t>2018-10-09</t>
+  </si>
+  <si>
+    <t>2019-10-09</t>
+  </si>
+  <si>
+    <t>120.78.252.203</t>
+  </si>
+  <si>
+    <t>木头人金融_RBMQ消息队列服务器</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>2018-10-10</t>
+  </si>
+  <si>
+    <t>2019-10-10</t>
+  </si>
+  <si>
+    <t>118.31.6.101</t>
+  </si>
+  <si>
+    <t>华东1区</t>
+  </si>
+  <si>
+    <t>木头人金融灾备服务器</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>2018-10-11</t>
+  </si>
+  <si>
+    <t>2019-10-11</t>
+  </si>
+  <si>
+    <t>120.79.240.239</t>
+  </si>
+  <si>
+    <t>木头人金融项目站点（S2）新服务器</t>
+  </si>
+  <si>
+    <t>1012</t>
+  </si>
+  <si>
+    <t>2018-10-12</t>
+  </si>
+  <si>
+    <t>2019-10-12</t>
+  </si>
+  <si>
+    <t>192.168.1.190</t>
+  </si>
+  <si>
+    <t>虚拟机</t>
+  </si>
+  <si>
+    <t>测试组</t>
+  </si>
+  <si>
+    <t>gogs 服务器</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>1013</t>
+  </si>
+  <si>
+    <t>2018-10-13</t>
+  </si>
+  <si>
+    <t>2019-10-13</t>
+  </si>
+  <si>
+    <t>李祖祥</t>
+  </si>
+  <si>
+    <t>192.168.1.192</t>
+  </si>
+  <si>
+    <t>RMQ消息队列测试</t>
+  </si>
+  <si>
+    <t>1014</t>
+  </si>
+  <si>
+    <t>2018-10-14</t>
+  </si>
+  <si>
+    <t>2019-10-14</t>
+  </si>
+  <si>
+    <t>192.168.1.191</t>
+  </si>
+  <si>
+    <t>木头人管理测试站点</t>
+  </si>
+  <si>
+    <t>1015</t>
+  </si>
+  <si>
+    <t>2018-10-15</t>
+  </si>
+  <si>
+    <t>2019-10-15</t>
+  </si>
+  <si>
+    <t>192.168.1.194</t>
+  </si>
+  <si>
+    <t>木头云测试站点</t>
+  </si>
+  <si>
+    <t>1016</t>
+  </si>
+  <si>
+    <t>2018-10-16</t>
+  </si>
+  <si>
+    <t>2019-10-16</t>
+  </si>
+  <si>
+    <t>192.168.1.195</t>
+  </si>
+  <si>
+    <t>木头人金融测试站点</t>
+  </si>
+  <si>
+    <t>1017</t>
+  </si>
+  <si>
+    <t>2018-10-17</t>
+  </si>
+  <si>
+    <t>2019-10-17</t>
+  </si>
+  <si>
+    <t>192.168.1.196</t>
+  </si>
+  <si>
+    <t>木头云旧平台测试站点</t>
+  </si>
+  <si>
+    <t>1018</t>
+  </si>
+  <si>
+    <t>2018-10-18</t>
+  </si>
+  <si>
+    <t>2019-10-18</t>
+  </si>
+  <si>
+    <t>192.168.1.91</t>
+  </si>
+  <si>
+    <t>区块链测试服务器</t>
+  </si>
+  <si>
+    <t>1019</t>
+  </si>
+  <si>
+    <t>2018-10-19</t>
+  </si>
+  <si>
+    <t>2019-10-19</t>
+  </si>
+  <si>
+    <t>192.168.1.207</t>
+  </si>
+  <si>
+    <t>apidoc</t>
+  </si>
+  <si>
+    <t>1020</t>
+  </si>
+  <si>
+    <t>2018-10-20</t>
+  </si>
+  <si>
+    <t>2019-10-20</t>
+  </si>
+  <si>
+    <t>192.168.1.218</t>
+  </si>
+  <si>
+    <t>运维</t>
+  </si>
+  <si>
+    <t>运维管理服务器</t>
+  </si>
+  <si>
+    <t>1021</t>
+  </si>
+  <si>
+    <t>2018-10-21</t>
+  </si>
+  <si>
+    <t>2019-10-21</t>
+  </si>
+  <si>
+    <t>39.108.231.212</t>
+  </si>
+  <si>
+    <t>木头人运维管理服务器</t>
+  </si>
+  <si>
+    <t>1022</t>
+  </si>
+  <si>
+    <t>2018-10-22</t>
+  </si>
+  <si>
+    <t>2019-10-22</t>
+  </si>
+  <si>
+    <t>192.168.1.198</t>
+  </si>
+  <si>
     <t>物理机</t>
   </si>
   <si>
-    <t>服务器-运维</t>
-  </si>
-  <si>
-    <t>root</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>测试</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>4656</t>
-  </si>
-  <si>
-    <t>维盟</t>
-  </si>
-  <si>
-    <t>lzx</t>
-  </si>
-  <si>
-    <t>10086</t>
-  </si>
-  <si>
-    <t>100860@139.com</t>
-  </si>
-  <si>
-    <t>小贰</t>
-  </si>
-  <si>
-    <t>超级管理员</t>
-  </si>
-  <si>
-    <t>1343208940</t>
-  </si>
-  <si>
-    <t>1343208940@139.com</t>
-  </si>
-  <si>
-    <t>127.0.0.2</t>
-  </si>
-  <si>
-    <t>虚拟机</t>
-  </si>
-  <si>
-    <t>服务器-测试</t>
+    <t>ESXI 6.5</t>
+  </si>
+  <si>
+    <t>1023</t>
+  </si>
+  <si>
+    <t>2018-10-23</t>
+  </si>
+  <si>
+    <t>2019-10-23</t>
+  </si>
+  <si>
+    <t>戴尔</t>
+  </si>
+  <si>
+    <t>李四</t>
   </si>
   <si>
     <t>192.168.1.88</t>
   </si>
   <si>
-    <t>运维</t>
-  </si>
-  <si>
     <t>ELK 日志服务器</t>
   </si>
   <si>
-    <t>10245</t>
+    <t>1024</t>
   </si>
   <si>
     <t>2018-10-24</t>
@@ -168,6 +516,69 @@
   </si>
   <si>
     <t>2019-10-25</t>
+  </si>
+  <si>
+    <t>192.168.1.216</t>
+  </si>
+  <si>
+    <t>docker k8s-node1</t>
+  </si>
+  <si>
+    <t>1026</t>
+  </si>
+  <si>
+    <t>2018-10-26</t>
+  </si>
+  <si>
+    <t>2019-10-26</t>
+  </si>
+  <si>
+    <t>192.168.1.126</t>
+  </si>
+  <si>
+    <t>docker k8s-master</t>
+  </si>
+  <si>
+    <t>1027</t>
+  </si>
+  <si>
+    <t>2018-10-27</t>
+  </si>
+  <si>
+    <t>2019-10-27</t>
+  </si>
+  <si>
+    <t>192.168.1.197</t>
+  </si>
+  <si>
+    <t>administrator</t>
+  </si>
+  <si>
+    <t>hyper-V 宿主机</t>
+  </si>
+  <si>
+    <t>3389</t>
+  </si>
+  <si>
+    <t>1028</t>
+  </si>
+  <si>
+    <t>2018-10-28</t>
+  </si>
+  <si>
+    <t>2019-10-28</t>
+  </si>
+  <si>
+    <t>192.168.1.199</t>
+  </si>
+  <si>
+    <t>1029</t>
+  </si>
+  <si>
+    <t>2018-10-29</t>
+  </si>
+  <si>
+    <t>2019-10-29</t>
   </si>
 </sst>
 </file>
@@ -545,7 +956,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,13 +1064,13 @@
         <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>27</v>
@@ -700,24 +1111,32 @@
         <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="H3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="2" t="s"/>
-      <c r="J3" s="2" t="s"/>
-      <c r="K3" s="2" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="L3" s="2" t="s">
         <v>29</v>
       </c>
@@ -745,16 +1164,16 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>23</v>
@@ -763,25 +1182,25 @@
         <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>31</v>
@@ -804,16 +1223,16 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>23</v>
@@ -822,42 +1241,1517 @@
         <v>24</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" s="2" t="s">
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S5" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S30" s="2" t="s">
         <v>36</v>
       </c>
     </row>
